--- a/Projeto2_Rubrica - Ciência dos Dados vff (3).xlsx
+++ b/Projeto2_Rubrica - Ciência dos Dados vff (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariakv\Dropbox\Insper Aulas\DataScience (2)\2023.1 CD\projetos\p2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/venanciofaf_al_insper_edu_br/Documents/Materias 2° semestre Insper/Ciência de dados/Projetos/Projeto 2/Inferencia-PlanoDeSaude/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE07A5-C021-43A2-9DD4-1B6D9059B873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE07A5-C021-43A2-9DD4-1B6D9059B873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,21 +646,21 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="35.69140625" customWidth="1"/>
-    <col min="3" max="3" width="34.3046875" customWidth="1"/>
-    <col min="4" max="4" width="96.53515625" customWidth="1"/>
-    <col min="5" max="5" width="119.07421875" customWidth="1"/>
-    <col min="6" max="25" width="10.69140625" customWidth="1"/>
-    <col min="1024" max="1024" width="9.61328125" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" customWidth="1"/>
+    <col min="4" max="4" width="96.54296875" customWidth="1"/>
+    <col min="5" max="5" width="119.08984375" customWidth="1"/>
+    <col min="6" max="25" width="10.7265625" customWidth="1"/>
+    <col min="1024" max="1024" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="2" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1024" s="2" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
       </c>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="5" customFormat="1" ht="403" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
